--- a/uploads/Canon_NAN_eco_report.xlsx
+++ b/uploads/Canon_NAN_eco_report.xlsx
@@ -466,17 +466,13 @@
           <t>KD Totals</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>0.00</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
     </row>
   </sheetData>
